--- a/data/trans_bre/P54_A_6_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_6_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>17,77</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,6</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,27</t>
+          <t>6,55</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>39,28%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>12,7%</t>
+          <t>-0,49%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>19,93%</t>
+          <t>7,9%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,38; 19,54</t>
+          <t>-3,62; 43,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 33,75</t>
+          <t>-11,07; 11,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,97; 26,65</t>
+          <t>-8,55; 21,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-25,18; 53,94</t>
+          <t>-6,3; 147,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 60,81</t>
+          <t>-11,82; 13,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,63; 39,81</t>
+          <t>-9,59; 29,81</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,05</t>
+          <t>4,81</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,78</t>
+          <t>13,66</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,07%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>10,44%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,14%</t>
+          <t>18,49%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,72; 7,8</t>
+          <t>-12,76; 10,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,56; 16,64</t>
+          <t>-3,07; 13,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,85; 19,93</t>
+          <t>5,39; 23,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-23,5; 22,93</t>
+          <t>-29,39; 34,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,88; 23,43</t>
+          <t>-3,48; 17,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,48; 28,61</t>
+          <t>6,79; 35,63</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>17,33</t>
+          <t>20,29</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,1</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,47</t>
+          <t>15,42</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>73,79%</t>
+          <t>101,87%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,0%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,57%</t>
+          <t>24,49%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,41; 25,68</t>
+          <t>9,74; 30,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 16,35</t>
+          <t>-8,83; 13,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,76; 22,78</t>
+          <t>3,85; 27,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>26,01; 142,17</t>
+          <t>35,98; 214,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 26,7</t>
+          <t>-11,25; 22,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,02; 38,89</t>
+          <t>5,97; 50,29</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,84</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,48</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,23</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,39%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,127 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 11,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,11; 13,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,42; 18,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 37,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,94; 19,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,26; 26,58</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>9,96</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,31</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>12,91</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>31,77%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2,9%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>18,16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1,38; 17,9</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-4,01; 8,58</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5,92; 19,15</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>3,79; 65,32</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-4,85; 11,53</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>8,05; 29,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_bre/P54_A_6_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_6_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,163 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>17,77</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,45</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>6,55</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>39,28%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-0,49%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>7,9%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>17.77340077559567</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>2.236123514434796</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>6.703264014010413</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.3927898392822167</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.02510156271599536</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.08219648072062034</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-3,62; 43,09</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-11,07; 11,62</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-8,55; 21,45</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-6,3; 147,31</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-11,82; 13,63</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-9,59; 29,81</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-3.621201224847119</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-8.649964257604305</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-9.848361487169655</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.06295296169111184</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.09119186337520967</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.109634512514647</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>43.09017191461152</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>21.65867319093719</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>21.94344840779477</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>1.473095381979343</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.2946185376522598</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.3320763612098974</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,27</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>4,81</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>13,66</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,75%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>5,78%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>18,49%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-12,76; 10,25</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,07; 13,25</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>5,39; 23,59</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-29,39; 34,26</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-3,48; 17,25</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>6,79; 35,63</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.2741512489643994</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>7.264088667463686</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>15.02963163960934</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.007519297366966895</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.08918086798079963</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.2060004842006136</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>20,29</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,96</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>15,42</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>101,87%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>2,78%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>24,49%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-12.75794280668607</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.7927579562034039</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>6.816889997517348</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.2938605216300986</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.009746145356574436</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.08475681741376991</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>9,74; 30,68</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-8,83; 13,92</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>3,85; 27,25</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>35,98; 214,56</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-11,25; 22,6</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>5,97; 50,29</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>10.25397488244513</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>15.93753679258093</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>25.55046853289316</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.3426447705097856</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.2142214620792152</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.3900310689227215</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,172 +775,175 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>20.29371372707705</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.2055657246267217</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>15.13007746245004</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>1.018717302830971</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.002824158963861375</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.2375241952349564</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>9.74269789709866</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-11.44477600912297</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>3.729207301464647</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>0.3598445154355245</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.1451659854573159</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>0.05140483309520275</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>30.68001630494948</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>11.53283793693632</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>27.3693707201005</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>2.145613676585764</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.1732222102152662</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.4998211481204836</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>9,96</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,31</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>12,91</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>31,77%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>2,9%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>18,16%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>1,38; 17,9</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-4,01; 8,58</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>5,92; 19,15</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>3,79; 65,32</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-4,85; 11,53</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>8,05; 29,07</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>9.961709977665251</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>3.297909245638264</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>13.63430806027226</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.3177338397152713</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.04165682366091947</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.1928395851049983</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>1.383208781201565</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.649287482527849</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>6.32215452385017</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0.03785040282495218</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.03184201121930544</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.08512330753020129</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>17.89742381631445</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>9.892889313189981</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>20.07782892802442</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.6531874534626834</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.1318143142005743</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.3080615353870071</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
